--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ctf1-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Ctf1</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ctf1</t>
-  </si>
-  <si>
-    <t>Il6st</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H2">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I2">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J2">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>8.466571125946336</v>
+        <v>109.5377973767</v>
       </c>
       <c r="R2">
-        <v>76.19914013351702</v>
+        <v>985.8401763902999</v>
       </c>
       <c r="S2">
-        <v>0.0166700952471876</v>
+        <v>0.1444366750011124</v>
       </c>
       <c r="T2">
-        <v>0.0166700952471876</v>
+        <v>0.1444366750011125</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H3">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I3">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J3">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>19.18967160122778</v>
+        <v>149.2884372038889</v>
       </c>
       <c r="R3">
-        <v>172.70704441105</v>
+        <v>1343.595934835</v>
       </c>
       <c r="S3">
-        <v>0.03778314132085702</v>
+        <v>0.1968519178059421</v>
       </c>
       <c r="T3">
-        <v>0.03778314132085704</v>
+        <v>0.1968519178059421</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H4">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I4">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J4">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>3.657270865931222</v>
+        <v>59.16671408682222</v>
       </c>
       <c r="R4">
-        <v>32.915437793381</v>
+        <v>532.5004267813999</v>
       </c>
       <c r="S4">
-        <v>0.007200914369336648</v>
+        <v>0.0780173023203394</v>
       </c>
       <c r="T4">
-        <v>0.007200914369336651</v>
+        <v>0.0780173023203394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1923443333333333</v>
+        <v>1.496366666666667</v>
       </c>
       <c r="H5">
-        <v>0.577033</v>
+        <v>4.4891</v>
       </c>
       <c r="I5">
-        <v>0.06576397757907125</v>
+        <v>0.4423917120365116</v>
       </c>
       <c r="J5">
-        <v>0.06576397757907126</v>
+        <v>0.4423917120365117</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>2.087338978045</v>
+        <v>17.50780772852222</v>
       </c>
       <c r="R5">
-        <v>18.786050802405</v>
+        <v>157.5702695567</v>
       </c>
       <c r="S5">
-        <v>0.004109826641689979</v>
+        <v>0.0230858169091177</v>
       </c>
       <c r="T5">
-        <v>0.004109826641689981</v>
+        <v>0.0230858169091177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,14 +770,14 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H6">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I6">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J6">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N6">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q6">
-        <v>65.86674322176668</v>
+        <v>138.065840748554</v>
       </c>
       <c r="R6">
-        <v>592.8006889959</v>
+        <v>1242.592566736986</v>
       </c>
       <c r="S6">
-        <v>0.1296870795503027</v>
+        <v>0.1820537882496813</v>
       </c>
       <c r="T6">
-        <v>0.1296870795503028</v>
+        <v>0.1820537882496814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H7">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I7">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J7">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P7">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q7">
-        <v>149.2884372038889</v>
+        <v>188.1691442608555</v>
       </c>
       <c r="R7">
-        <v>1343.595934835</v>
+        <v>1693.5222983477</v>
       </c>
       <c r="S7">
-        <v>0.2939386477089859</v>
+        <v>0.2481200661847874</v>
       </c>
       <c r="T7">
-        <v>0.293938647708986</v>
+        <v>0.2481200661847874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H8">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I8">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J8">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N8">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q8">
-        <v>28.45219362541111</v>
+        <v>74.57610359494089</v>
       </c>
       <c r="R8">
-        <v>256.0697426287</v>
+        <v>671.1849323544679</v>
       </c>
       <c r="S8">
-        <v>0.05602040905007018</v>
+        <v>0.09833614237055129</v>
       </c>
       <c r="T8">
-        <v>0.0560204090500702</v>
+        <v>0.0983361423705513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +956,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.496366666666667</v>
+        <v>1.886080666666667</v>
       </c>
       <c r="H9">
-        <v>4.4891</v>
+        <v>5.658242</v>
       </c>
       <c r="I9">
-        <v>0.5116190438852002</v>
+        <v>0.5576082879634883</v>
       </c>
       <c r="J9">
-        <v>0.5116190438852003</v>
+        <v>0.5576082879634884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N9">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O9">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P9">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q9">
-        <v>16.2387132215</v>
+        <v>22.06754427779489</v>
       </c>
       <c r="R9">
-        <v>146.1484189935</v>
+        <v>198.607898500154</v>
       </c>
       <c r="S9">
-        <v>0.03197290757584138</v>
+        <v>0.02909829115846827</v>
       </c>
       <c r="T9">
-        <v>0.0319729075758414</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H10">
-        <v>3.708169</v>
-      </c>
-      <c r="I10">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J10">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>44.01778300000001</v>
-      </c>
-      <c r="N10">
-        <v>132.053349</v>
-      </c>
-      <c r="O10">
-        <v>0.253483683026081</v>
-      </c>
-      <c r="P10">
-        <v>0.253483683026081</v>
-      </c>
-      <c r="Q10">
-        <v>54.40845945644234</v>
-      </c>
-      <c r="R10">
-        <v>489.6761351079811</v>
-      </c>
-      <c r="S10">
-        <v>0.1071265082285907</v>
-      </c>
-      <c r="T10">
-        <v>0.1071265082285907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.708169</v>
-      </c>
-      <c r="I11">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J11">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>99.76728333333334</v>
-      </c>
-      <c r="N11">
-        <v>299.30185</v>
-      </c>
-      <c r="O11">
-        <v>0.5745264004968146</v>
-      </c>
-      <c r="P11">
-        <v>0.5745264004968147</v>
-      </c>
-      <c r="Q11">
-        <v>123.3179824236278</v>
-      </c>
-      <c r="R11">
-        <v>1109.86184181265</v>
-      </c>
-      <c r="S11">
-        <v>0.2428046114669716</v>
-      </c>
-      <c r="T11">
-        <v>0.2428046114669717</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H12">
-        <v>3.708169</v>
-      </c>
-      <c r="I12">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J12">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>19.01418566666667</v>
-      </c>
-      <c r="N12">
-        <v>57.042557</v>
-      </c>
-      <c r="O12">
-        <v>0.1094963327100864</v>
-      </c>
-      <c r="P12">
-        <v>0.1094963327100864</v>
-      </c>
-      <c r="Q12">
-        <v>23.50260461645922</v>
-      </c>
-      <c r="R12">
-        <v>211.523441548133</v>
-      </c>
-      <c r="S12">
-        <v>0.04627500929067958</v>
-      </c>
-      <c r="T12">
-        <v>0.04627500929067959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.236056333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.708169</v>
-      </c>
-      <c r="I13">
-        <v>0.4226169785357285</v>
-      </c>
-      <c r="J13">
-        <v>0.4226169785357286</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.852095</v>
-      </c>
-      <c r="N13">
-        <v>32.556285</v>
-      </c>
-      <c r="O13">
-        <v>0.06249358376701794</v>
-      </c>
-      <c r="P13">
-        <v>0.06249358376701795</v>
-      </c>
-      <c r="Q13">
-        <v>13.413800754685</v>
-      </c>
-      <c r="R13">
-        <v>120.724206792165</v>
-      </c>
-      <c r="S13">
-        <v>0.02641084954948657</v>
-      </c>
-      <c r="T13">
-        <v>0.02641084954948658</v>
+        <v>0.02909829115846828</v>
       </c>
     </row>
   </sheetData>
